--- a/biology/Botanique/Carex_pulicaris/Carex_pulicaris.xlsx
+++ b/biology/Botanique/Carex_pulicaris/Carex_pulicaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laîche puce, Carex pucier
 Carex pulicaris, de nom commun Laîche puce ou Carex pucier, est une espèce de plantes vivace de la famille des Cyperaceae et du genre Carex.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) »[2]. Pulicaris signifie « puce ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) ». Pulicaris signifie « puce ».
 </t>
         </is>
       </c>
@@ -545,12 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La Laîche puce est une plante vivace, monoïque, cespiteuse, de 5 à 30 cm de hauteur, à tiges grêles, dressées, légèrement trigones, et lisses. Les feuilles sont fines, égalant environ la tige, à bords enroulés[3].
-Appareil reproducteur
-L'inflorescence est constituée d'un seul épi dressé ; les fleurs sont mâles situées à l'extrémité ; les fleurs femelles sont sous-jacentes, très lâches, brunes, dressées, puis se positionnant à l'horizontale. Les écailles femelles sont brunes à marge scarieuse, oblongues et obtuses, un peu plus courtes que les utricules ; les écailles mâles sont ovale-allongées et aiguës. L'utricule est d'environ 5,5 mm de longueur, brun orangé, luisant, pédicellé, en fuseau allongé, terminés en un bec court blanchâtre ; les stigmates sont au nombre de deux. La floraison a lieu en mai et juin[3].
-Confusions possibles
-La Laîche puce peut être confondue avec les formes monoïques de Carex davalliana, dont l'utricule est plus renflé à la base et non pédicellé[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laîche puce est une plante vivace, monoïque, cespiteuse, de 5 à 30 cm de hauteur, à tiges grêles, dressées, légèrement trigones, et lisses. Les feuilles sont fines, égalant environ la tige, à bords enroulés.
 </t>
         </is>
       </c>
@@ -576,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hémicryptophyte, cespiteuse, l'espèce pousse dans les prairies humides, marécageuses à tourbeuses, sur les bords de ruisseaux, zones ravinées ou décapées ; généralement sur sols siliceux. Elle se rencontre jusqu'à 2 500 m d'altitude[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est constituée d'un seul épi dressé ; les fleurs sont mâles situées à l'extrémité ; les fleurs femelles sont sous-jacentes, très lâches, brunes, dressées, puis se positionnant à l'horizontale. Les écailles femelles sont brunes à marge scarieuse, oblongues et obtuses, un peu plus courtes que les utricules ; les écailles mâles sont ovale-allongées et aiguës. L'utricule est d'environ 5,5 mm de longueur, brun orangé, luisant, pédicellé, en fuseau allongé, terminés en un bec court blanchâtre ; les stigmates sont au nombre de deux. La floraison a lieu en mai et juin.
 </t>
         </is>
       </c>
@@ -607,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce eurasiatique, présente de l'Espagne jusqu'en Sibérie et Caucase. Elle est disséminée dans presque toute la France, rare dans la région méditerranéenne[3].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laîche puce peut être confondue avec les formes monoïques de Carex davalliana, dont l'utricule est plus renflé à la base et non pédicellé.
 </t>
         </is>
       </c>
@@ -638,12 +665,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémicryptophyte, cespiteuse, l'espèce pousse dans les prairies humides, marécageuses à tourbeuses, sur les bords de ruisseaux, zones ravinées ou décapées ; généralement sur sols siliceux. Elle se rencontre jusqu'à 2 500 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carex_pulicaris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_pulicaris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce eurasiatique, présente de l'Espagne jusqu'en Sibérie et Caucase. Elle est disséminée dans presque toute la France, rare dans la région méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carex_pulicaris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_pulicaris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante en régression du fait de la dégradation des zones humides ; elle est notamment victime de l'artificialisation des cours d'eau et du drainage de ses milieux[3]. À l'échelle de la France, l'espèce est en « préoccupation mineure » (LC), mais est « en danger » (EN) en Île-de-France, Haute-Normandie, Picardie et Lorraine[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante en régression du fait de la dégradation des zones humides ; elle est notamment victime de l'artificialisation des cours d'eau et du drainage de ses milieux. À l'échelle de la France, l'espèce est en « préoccupation mineure » (LC), mais est « en danger » (EN) en Île-de-France, Haute-Normandie, Picardie et Lorraine.
 </t>
         </is>
       </c>
